--- a/Data/Processed/Angiosperms/missing_powo_ipni/Styracaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Styracaceae.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 57(Mém. 3e): 446. 1910 </t>
+          <t>Bull. Soc. Bot. France 57(Mém. 3e): 446. 1910</t>
         </is>
       </c>
       <c r="J76" t="b">
